--- a/data/pca/factorExposure/factorExposure_2013-01-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-11.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0007411970821341161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001813091521232263</v>
+      </c>
+      <c r="C2">
+        <v>-0.03145976935340204</v>
+      </c>
+      <c r="D2">
+        <v>-0.007023973976741981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0002277246549613988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.00640660283941703</v>
+      </c>
+      <c r="C4">
+        <v>-0.08466488606631713</v>
+      </c>
+      <c r="D4">
+        <v>-0.07982936258180651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003982927214499906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01428073850049894</v>
+      </c>
+      <c r="C6">
+        <v>-0.1131523157573368</v>
+      </c>
+      <c r="D6">
+        <v>-0.03296649706313384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002064058063716972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005089082445575403</v>
+      </c>
+      <c r="C7">
+        <v>-0.05783419412860489</v>
+      </c>
+      <c r="D7">
+        <v>-0.03206903685560278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0007143815236957962</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005796746540967023</v>
+      </c>
+      <c r="C8">
+        <v>-0.03817701772341645</v>
+      </c>
+      <c r="D8">
+        <v>-0.04141935897467656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003174092743257396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004512375701949738</v>
+      </c>
+      <c r="C9">
+        <v>-0.07031509119280083</v>
+      </c>
+      <c r="D9">
+        <v>-0.07199480331185396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002193629400426173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005464367516485027</v>
+      </c>
+      <c r="C10">
+        <v>-0.05897950722933728</v>
+      </c>
+      <c r="D10">
+        <v>0.1950727517655461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002644458714626766</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.00580470400140906</v>
+      </c>
+      <c r="C11">
+        <v>-0.07964553016360593</v>
+      </c>
+      <c r="D11">
+        <v>-0.06166814306802933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004610470795009737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.00412948133708213</v>
+      </c>
+      <c r="C12">
+        <v>-0.06376282964131638</v>
+      </c>
+      <c r="D12">
+        <v>-0.04766492697259802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002116963109429908</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00898031732770917</v>
+      </c>
+      <c r="C13">
+        <v>-0.06827734938456935</v>
+      </c>
+      <c r="D13">
+        <v>-0.05669623329530539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009332148948636122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001621190044163787</v>
+      </c>
+      <c r="C14">
+        <v>-0.04516423285900081</v>
+      </c>
+      <c r="D14">
+        <v>-0.008897958407435892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0006499075934338472</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006070947277066646</v>
+      </c>
+      <c r="C15">
+        <v>-0.04178158709428002</v>
+      </c>
+      <c r="D15">
+        <v>-0.02856421814427684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0008675419681067985</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005104164109149626</v>
+      </c>
+      <c r="C16">
+        <v>-0.06487733717446585</v>
+      </c>
+      <c r="D16">
+        <v>-0.04876084947632008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001883804838216767</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009008502337676874</v>
+      </c>
+      <c r="C20">
+        <v>-0.06547412820306178</v>
+      </c>
+      <c r="D20">
+        <v>-0.04117227188421383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005682206741733991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01006857326544892</v>
+      </c>
+      <c r="C21">
+        <v>-0.02146916140394319</v>
+      </c>
+      <c r="D21">
+        <v>-0.03656256676817962</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01672322348099561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006679383779210642</v>
+      </c>
+      <c r="C22">
+        <v>-0.09359152945615139</v>
+      </c>
+      <c r="D22">
+        <v>-0.1136057895729221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01702461693946941</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006495666566002625</v>
+      </c>
+      <c r="C23">
+        <v>-0.09440539249395088</v>
+      </c>
+      <c r="D23">
+        <v>-0.1136398862510501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001324880000624893</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005516490082743127</v>
+      </c>
+      <c r="C24">
+        <v>-0.07601944792654987</v>
+      </c>
+      <c r="D24">
+        <v>-0.06221409272140661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003810874103454659</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003093377426456218</v>
+      </c>
+      <c r="C25">
+        <v>-0.07826854601914357</v>
+      </c>
+      <c r="D25">
+        <v>-0.06751515087555229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004776018378787771</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003663080597442617</v>
+      </c>
+      <c r="C26">
+        <v>-0.040813894375867</v>
+      </c>
+      <c r="D26">
+        <v>-0.0218997375092865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005398040508187883</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0007277477567577563</v>
+      </c>
+      <c r="C28">
+        <v>-0.1086930496716586</v>
+      </c>
+      <c r="D28">
+        <v>0.316867341069159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001046387968479835</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.00326392261473375</v>
+      </c>
+      <c r="C29">
+        <v>-0.04960389789828801</v>
+      </c>
+      <c r="D29">
+        <v>-0.005764613105088792</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003374493498616955</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009611247384823728</v>
+      </c>
+      <c r="C30">
+        <v>-0.1425004282704514</v>
+      </c>
+      <c r="D30">
+        <v>-0.09688086911345077</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001152523652519684</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006306034311428625</v>
+      </c>
+      <c r="C31">
+        <v>-0.0444460375759847</v>
+      </c>
+      <c r="D31">
+        <v>-0.03119489051797951</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005979786807420356</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004220639650766148</v>
+      </c>
+      <c r="C32">
+        <v>-0.04112746453992618</v>
+      </c>
+      <c r="D32">
+        <v>-0.0203971393998938</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002655716045091069</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008481008371990874</v>
+      </c>
+      <c r="C33">
+        <v>-0.08558718977411216</v>
+      </c>
+      <c r="D33">
+        <v>-0.06619587018436601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004268399423429745</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.00401151822624574</v>
+      </c>
+      <c r="C34">
+        <v>-0.05781060274724897</v>
+      </c>
+      <c r="D34">
+        <v>-0.05353883816010415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001390406570350451</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005065192136895293</v>
+      </c>
+      <c r="C35">
+        <v>-0.04061076721256345</v>
+      </c>
+      <c r="D35">
+        <v>-0.01581988795109909</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003646081849090538</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001089899633214177</v>
+      </c>
+      <c r="C36">
+        <v>-0.02471739957920224</v>
+      </c>
+      <c r="D36">
+        <v>-0.02155720929122873</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.00233790485546122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009543597563428145</v>
+      </c>
+      <c r="C38">
+        <v>-0.03517175921732662</v>
+      </c>
+      <c r="D38">
+        <v>-0.01519284171766976</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01183916532502093</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0004512049582084514</v>
+      </c>
+      <c r="C39">
+        <v>-0.1155023234653922</v>
+      </c>
+      <c r="D39">
+        <v>-0.07377581112946631</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.01000429197416362</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002810490092298678</v>
+      </c>
+      <c r="C40">
+        <v>-0.09117384766229213</v>
+      </c>
+      <c r="D40">
+        <v>-0.009564351426526866</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001290269882943498</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007252964901180299</v>
+      </c>
+      <c r="C41">
+        <v>-0.03774449289501629</v>
+      </c>
+      <c r="D41">
+        <v>-0.035957559765689</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002868541116474103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004126848310463506</v>
+      </c>
+      <c r="C43">
+        <v>-0.05364588657078512</v>
+      </c>
+      <c r="D43">
+        <v>-0.02500627148051802</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004111936155838894</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003498376511566675</v>
+      </c>
+      <c r="C44">
+        <v>-0.1091146472016414</v>
+      </c>
+      <c r="D44">
+        <v>-0.06862927418957032</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001041165685259962</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002221403506729227</v>
+      </c>
+      <c r="C46">
+        <v>-0.03289806976587298</v>
+      </c>
+      <c r="D46">
+        <v>-0.03234801508956187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>5.904223233591344e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002752697225351525</v>
+      </c>
+      <c r="C47">
+        <v>-0.03731588696481923</v>
+      </c>
+      <c r="D47">
+        <v>-0.02184856648332158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003648652356462791</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006675851864797224</v>
+      </c>
+      <c r="C48">
+        <v>-0.0307914651747592</v>
+      </c>
+      <c r="D48">
+        <v>-0.03103343174531055</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01196722444480131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01552000067291458</v>
+      </c>
+      <c r="C49">
+        <v>-0.1837981009516396</v>
+      </c>
+      <c r="D49">
+        <v>-0.01471423586853725</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001612373744855027</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.00368680581978036</v>
+      </c>
+      <c r="C50">
+        <v>-0.04347682343109693</v>
+      </c>
+      <c r="D50">
+        <v>-0.03508382043185002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0008253882744411917</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004472712163354159</v>
+      </c>
+      <c r="C51">
+        <v>-0.02611580162780739</v>
+      </c>
+      <c r="D51">
+        <v>-0.01963352613814905</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008613649894322932</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02115964017875132</v>
+      </c>
+      <c r="C53">
+        <v>-0.1697458502251913</v>
+      </c>
+      <c r="D53">
+        <v>-0.02712962325723531</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001257975948586251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008794861385077197</v>
+      </c>
+      <c r="C54">
+        <v>-0.05404701719718538</v>
+      </c>
+      <c r="D54">
+        <v>-0.04406763846937994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003801435838076373</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009670553745501699</v>
+      </c>
+      <c r="C55">
+        <v>-0.1083011967607692</v>
+      </c>
+      <c r="D55">
+        <v>-0.04002044879331099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002787718473435322</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02034773233074328</v>
+      </c>
+      <c r="C56">
+        <v>-0.1742790100053732</v>
+      </c>
+      <c r="D56">
+        <v>-0.02707332922404868</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.00697933153470663</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01982461950453219</v>
+      </c>
+      <c r="C58">
+        <v>-0.1120308696776092</v>
+      </c>
+      <c r="D58">
+        <v>-0.04918881596104754</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006797588087179261</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01000186944693702</v>
+      </c>
+      <c r="C59">
+        <v>-0.1653441714642868</v>
+      </c>
+      <c r="D59">
+        <v>0.3203933674578392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003767420868380093</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02425441007742073</v>
+      </c>
+      <c r="C60">
+        <v>-0.2217413685066376</v>
+      </c>
+      <c r="D60">
+        <v>-0.03649383883226748</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01354543626090681</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001628971305830454</v>
+      </c>
+      <c r="C61">
+        <v>-0.09496276548485139</v>
+      </c>
+      <c r="D61">
+        <v>-0.05677327264302715</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.163700557204086</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.145025480123804</v>
+      </c>
+      <c r="C62">
+        <v>-0.09199387905212741</v>
+      </c>
+      <c r="D62">
+        <v>-0.04470087013870141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0007601387385466671</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.00634676236231561</v>
+      </c>
+      <c r="C63">
+        <v>-0.05476899672337916</v>
+      </c>
+      <c r="D63">
+        <v>-0.02623593106518281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0004941729790436548</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01544437972190875</v>
+      </c>
+      <c r="C64">
+        <v>-0.1049902758844334</v>
+      </c>
+      <c r="D64">
+        <v>-0.05977864697721093</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002932484091218182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01811833554427551</v>
+      </c>
+      <c r="C65">
+        <v>-0.1235810618138622</v>
+      </c>
+      <c r="D65">
+        <v>-0.01863847692678539</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.00763732559396765</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01325491478889917</v>
+      </c>
+      <c r="C66">
+        <v>-0.159509931667861</v>
+      </c>
+      <c r="D66">
+        <v>-0.1137987930051093</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003608399151553154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01574611474297338</v>
+      </c>
+      <c r="C67">
+        <v>-0.06580684143348682</v>
+      </c>
+      <c r="D67">
+        <v>-0.02750436261191211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006317705316636102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0007897297032162814</v>
+      </c>
+      <c r="C68">
+        <v>-0.08802737676968711</v>
+      </c>
+      <c r="D68">
+        <v>0.258849937249814</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002286685548127994</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006229222832264196</v>
+      </c>
+      <c r="C69">
+        <v>-0.04993556888404053</v>
+      </c>
+      <c r="D69">
+        <v>-0.03993011979029926</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002876511218839232</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001871107813271652</v>
+      </c>
+      <c r="C70">
+        <v>-0.00272308209465877</v>
+      </c>
+      <c r="D70">
+        <v>-0.002762193270813213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0002043546419032253</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005994992920981982</v>
+      </c>
+      <c r="C71">
+        <v>-0.0971682495998071</v>
+      </c>
+      <c r="D71">
+        <v>0.3067609119371084</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003791097770066006</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01627281619498558</v>
+      </c>
+      <c r="C72">
+        <v>-0.1527135036061359</v>
+      </c>
+      <c r="D72">
+        <v>-0.02032596336159915</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01159376898971514</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03119347552698304</v>
+      </c>
+      <c r="C73">
+        <v>-0.2802031097415911</v>
+      </c>
+      <c r="D73">
+        <v>-0.05639453606143398</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004623009789246476</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.00213962455605614</v>
+      </c>
+      <c r="C74">
+        <v>-0.1048398030522686</v>
+      </c>
+      <c r="D74">
+        <v>-0.03725661638936677</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002566285896303404</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01110492824370425</v>
+      </c>
+      <c r="C75">
+        <v>-0.1244178190753514</v>
+      </c>
+      <c r="D75">
+        <v>-0.0242412228007014</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009200312445179883</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02204077430302302</v>
+      </c>
+      <c r="C76">
+        <v>-0.1492056425755924</v>
+      </c>
+      <c r="D76">
+        <v>-0.06041229007022352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.00174412819093311</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02367146695127686</v>
+      </c>
+      <c r="C77">
+        <v>-0.1229351427639913</v>
+      </c>
+      <c r="D77">
+        <v>-0.08538670675611815</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0002259765269812669</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01483121103935427</v>
+      </c>
+      <c r="C78">
+        <v>-0.09557538513065593</v>
+      </c>
+      <c r="D78">
+        <v>-0.06974581741370139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02297333855856558</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03797690544373266</v>
+      </c>
+      <c r="C79">
+        <v>-0.1564909123793659</v>
+      </c>
+      <c r="D79">
+        <v>-0.0345769976028879</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006620707166305703</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.0104553654094312</v>
+      </c>
+      <c r="C80">
+        <v>-0.0399124461520645</v>
+      </c>
+      <c r="D80">
+        <v>-0.02854888631350559</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001230798192194633</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01550616051266944</v>
+      </c>
+      <c r="C81">
+        <v>-0.1269994047343934</v>
+      </c>
+      <c r="D81">
+        <v>-0.03980012514342991</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006054963067630144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02004322647186795</v>
+      </c>
+      <c r="C82">
+        <v>-0.1413928623619355</v>
+      </c>
+      <c r="D82">
+        <v>-0.03902818412785714</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008402935900079097</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01010580239476483</v>
+      </c>
+      <c r="C83">
+        <v>-0.05646996137776813</v>
+      </c>
+      <c r="D83">
+        <v>-0.05469682542863671</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01300865606508755</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01176331309836337</v>
+      </c>
+      <c r="C84">
+        <v>-0.03745562590725193</v>
+      </c>
+      <c r="D84">
+        <v>0.009051039454147957</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01401854097731433</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02837334327018289</v>
+      </c>
+      <c r="C85">
+        <v>-0.1234958330720905</v>
+      </c>
+      <c r="D85">
+        <v>-0.04516446944148594</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001733989040572751</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.006032401833627971</v>
+      </c>
+      <c r="C86">
+        <v>-0.05038504969867979</v>
+      </c>
+      <c r="D86">
+        <v>-0.02835713450391111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004336179063935981</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01027391855948083</v>
+      </c>
+      <c r="C87">
+        <v>-0.1291499542141846</v>
+      </c>
+      <c r="D87">
+        <v>-0.07417348271242888</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01177592218070874</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002826156249569218</v>
+      </c>
+      <c r="C88">
+        <v>-0.06546874785413134</v>
+      </c>
+      <c r="D88">
+        <v>-0.01796821278383735</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01386426259601558</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.00102590340386428</v>
+      </c>
+      <c r="C89">
+        <v>-0.1492185706268491</v>
+      </c>
+      <c r="D89">
+        <v>0.339422813214368</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002201072598959812</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007269513336022505</v>
+      </c>
+      <c r="C90">
+        <v>-0.1230777168809397</v>
+      </c>
+      <c r="D90">
+        <v>0.3185029611286801</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006328850304652296</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01057148052382757</v>
+      </c>
+      <c r="C91">
+        <v>-0.101115591208311</v>
+      </c>
+      <c r="D91">
+        <v>-0.02066932779768733</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007704061793614608</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001157038815396913</v>
+      </c>
+      <c r="C92">
+        <v>-0.1361328856452132</v>
+      </c>
+      <c r="D92">
+        <v>0.3259807621207153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0001065969477983787</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005089370149869163</v>
+      </c>
+      <c r="C93">
+        <v>-0.1065222896932853</v>
+      </c>
+      <c r="D93">
+        <v>0.3018390777661955</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003379853327537163</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02267299620118886</v>
+      </c>
+      <c r="C94">
+        <v>-0.1458158535964631</v>
+      </c>
+      <c r="D94">
+        <v>-0.0556331082004559</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004571408934181771</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01661638931479469</v>
+      </c>
+      <c r="C95">
+        <v>-0.1260910185147029</v>
+      </c>
+      <c r="D95">
+        <v>-0.05662625243355704</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0003734477437569025</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03640505318829453</v>
+      </c>
+      <c r="C97">
+        <v>-0.2119651086742994</v>
+      </c>
+      <c r="D97">
+        <v>0.01044617387418787</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002695604462902272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03682713809029815</v>
+      </c>
+      <c r="C98">
+        <v>-0.2475494949864182</v>
+      </c>
+      <c r="D98">
+        <v>-0.0525059792598499</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.984784119701853</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9820277742544963</v>
+      </c>
+      <c r="C99">
+        <v>0.1176248435970609</v>
+      </c>
+      <c r="D99">
+        <v>0.02740805332371034</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009447092938004983</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003301558238038116</v>
+      </c>
+      <c r="C101">
+        <v>-0.04977761854079575</v>
+      </c>
+      <c r="D101">
+        <v>-0.005912444698570689</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
